--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A48AF-1D56-4730-8266-70986BD60F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12DC40-4A6F-4403-AD8A-FD8DDBD0D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,19 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Sprites/Tower/1000000.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000001.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000002.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000003.png</t>
-  </si>
-  <si>
     <t>0.5,0.0625</t>
   </si>
   <si>
@@ -115,87 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Sprites/Tower/1000006.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000009.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000012.png</t>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001004.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002005.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001007.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002008.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001010.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002011.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001023.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1003024.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000022.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1003021.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002013.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001014.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1003015.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1000016.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001017.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002018.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1001019.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Sprites/Tower/1002020.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파이어블라스트,FireBlast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인페르노,Inferno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,7 +150,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정령,Spirit</t>
+    <t>파이어 블라스트,Fire Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이킹,Viking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적,Pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창,Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수,Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우,Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스볼트,IceBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스애로우,IceArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함선,Ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다트,Dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래퍼,Trapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티로스,Satyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켄타우로스,Centaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 창술사,Elf Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 궁수,Elf Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바드,Bard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정,Fairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드루이드,Druid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T117" sqref="T117"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +602,7 @@
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -637,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -675,7 +649,7 @@
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -695,14 +669,15 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="J2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -710,7 +685,7 @@
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -730,14 +705,15 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1000001/</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -745,7 +721,7 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -768,14 +744,15 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -783,7 +760,7 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -806,22 +783,23 @@
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1001004</v>
+        <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -841,22 +819,23 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1002005</v>
+        <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -876,22 +855,23 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1000006</v>
+        <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -911,22 +891,23 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1001007</v>
+        <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -946,22 +927,23 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1002008</v>
+        <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -981,22 +963,23 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1000009</v>
+        <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1016,22 +999,23 @@
       <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1001010</v>
+        <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1051,22 +1035,23 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1002011</v>
+        <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1086,22 +1071,23 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1000012</v>
+        <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1121,28 +1107,29 @@
       <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L14" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1002013</v>
+        <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>150</v>
@@ -1156,28 +1143,29 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>33</v>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1001014</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
+        <v>1002006</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>150</v>
@@ -1191,22 +1179,23 @@
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>34</v>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1003015</v>
+        <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1226,22 +1215,23 @@
       <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1000016</v>
+        <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1261,22 +1251,23 @@
       <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>36</v>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1001017</v>
+        <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1296,22 +1287,23 @@
       <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>37</v>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1002018</v>
+        <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1331,22 +1323,23 @@
       <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>38</v>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L20" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1001019</v>
+        <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1366,22 +1359,23 @@
       <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>39</v>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1002020</v>
+        <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1401,22 +1395,23 @@
       <c r="H22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>40</v>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1003021</v>
+        <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1436,120 +1431,25 @@
       <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>32</v>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1000022</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>150</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="1">
-        <v>36</v>
-      </c>
+      <c r="B24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1001023</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>150</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="1">
-        <v>36</v>
-      </c>
+      <c r="B25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>1003024</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>150</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="1">
-        <v>36</v>
-      </c>
+      <c r="B26"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28"/>
@@ -1595,7 +1495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1503,7 @@
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1646,93 +1546,819 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2"/>
+      <c r="A2" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1010000/</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3"/>
+      <c r="A3" s="1">
+        <v>1011000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1011000/</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4"/>
+      <c r="A4" s="1">
+        <v>1010001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>150</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1010001/</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5"/>
+      <c r="A5" s="1">
+        <v>1011001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011001/</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6"/>
+      <c r="A6" s="1">
+        <v>1012001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012001/</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7"/>
+      <c r="A7" s="1">
+        <v>1010002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1010002/</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8"/>
+      <c r="A8" s="1">
+        <v>1011002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011002/</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9"/>
+      <c r="A9" s="1">
+        <v>1012002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012002/</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10"/>
+      <c r="A10" s="1">
+        <v>1010003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1010003/</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11"/>
+      <c r="A11" s="1">
+        <v>1011003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011003/</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12"/>
+      <c r="A12" s="1">
+        <v>1012003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012003/</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13"/>
+      <c r="A13" s="1">
+        <v>1011004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>150</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011004/</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14"/>
+      <c r="A14" s="1">
+        <v>1012004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012004/</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15"/>
+      <c r="A15" s="1">
+        <v>1010005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1010005/</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1011005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011005/</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1012005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012005/</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1010006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1010006/</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1011006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>150</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1011006/</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1012006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012006/</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1013006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1013006/</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1012007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012007/</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1013007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1013007/</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1749,7 +2375,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A1048576 A1:A36" xr:uid="{37C452C2-8230-488A-AF82-B14A54137F8F}">
       <formula1>COUNTIFS($A:$A,A1)=1</formula1>
     </dataValidation>
@@ -1762,17 +2388,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T59" sqref="A2:T59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
     <col min="6" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1815,93 +2442,885 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2"/>
+      <c r="A2" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>/Sprites/Tower/1020000/</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3"/>
+      <c r="A3" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+        <v>/Sprites/Tower/1021000/</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4"/>
+      <c r="A4" s="1">
+        <v>1020001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>150</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4:J25" si="0">CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+        <v>/Sprites/Tower/1020001/</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5"/>
+      <c r="A5" s="1">
+        <v>1021001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021001/</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6"/>
+      <c r="A6" s="1">
+        <v>1022001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022001/</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7"/>
+      <c r="A7" s="1">
+        <v>1020002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020002/</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8"/>
+      <c r="A8" s="1">
+        <v>1021002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021002/</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9"/>
+      <c r="A9" s="1">
+        <v>1022002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022002/</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10"/>
+      <c r="A10" s="1">
+        <v>1020003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020003/</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11"/>
+      <c r="A11" s="1">
+        <v>1021003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021003/</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12"/>
+      <c r="A12" s="1">
+        <v>1022003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022003/</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13"/>
+      <c r="A13" s="1">
+        <v>1020004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>150</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020004/</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14"/>
+      <c r="A14" s="1">
+        <v>1021004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021004/</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15"/>
+      <c r="A15" s="1">
+        <v>1022004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022004/</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1020005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020005/</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1021005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021005/</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1022005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022005/</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1020006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>150</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020006/</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1021006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021006/</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1020007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020007/</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1022007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022007/</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1020008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1020008/</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1021008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>150</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1021008/</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1022008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1022008/</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12DC40-4A6F-4403-AD8A-FD8DDBD0D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEDBD8-38A3-4C0F-A8A7-EB798BAA4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -114,115 +114,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>화염검,Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염활,Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무도가,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼,FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인페르노,Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오,Metor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이즈,Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불,Fire Orb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 블라스트,Fire Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이킹,Viking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적,Pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창,Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수,Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우,Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스볼트,IceBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스애로우,IceArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함선,Ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다트,Dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래퍼,Trapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티로스,Satyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켄타우로스,Centaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 창술사,Elf Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 궁수,Elf Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바드,Bard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정,Fairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드루이드,Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>돌팔매,Sling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염검,Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염활,Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무도가,Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어볼,FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인페르노,Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오,Metor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블레이즈,Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비불,Fire Orb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 블라스트,Fire Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이킹,Viking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적,Pirate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창,Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수,Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우,Slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스볼트,IceBolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스애로우,IceArrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함선,Ship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다트,Dart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트래퍼,Trapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사티로스,Satyr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>켄타우로스,Centaurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 창술사,Elf Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 궁수,Elf Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바드,Bard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요정,Fairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드루이드,Druid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2270,32 +2270,32 @@
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/Sprites/Tower/1012007/</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>150</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/Sprites/Tower/1012007/</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="L22" s="1">
         <v>24</v>
@@ -2306,7 +2306,7 @@
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="1">
         <v>24</v>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2446,7 @@
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2518,7 +2518,7 @@
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2590,7 +2590,7 @@
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -2662,7 +2662,7 @@
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -2698,7 +2698,7 @@
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -2734,7 +2734,7 @@
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -2806,7 +2806,7 @@
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -2842,7 +2842,7 @@
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -2878,7 +2878,7 @@
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -2986,7 +2986,7 @@
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -3022,7 +3022,7 @@
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -3058,7 +3058,7 @@
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -3094,7 +3094,7 @@
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -3130,7 +3130,7 @@
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -3166,7 +3166,7 @@
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -3202,7 +3202,7 @@
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -3238,7 +3238,7 @@
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -3274,7 +3274,7 @@
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEDBD8-38A3-4C0F-A8A7-EB798BAA4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16686D1F-533C-4B18-9E69-B656DED28AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -75,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +215,14 @@
   </si>
   <si>
     <t>돌팔매,Sling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacktime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,15 +592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -611,28 +610,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -649,32 +648,32 @@
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
         <v>24</v>
@@ -685,32 +684,32 @@
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
         <v>/Sprites/Tower/1000001/</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1">
         <v>24</v>
@@ -721,35 +720,35 @@
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1">
         <v>24</v>
@@ -760,35 +759,35 @@
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1">
         <v>24</v>
@@ -799,32 +798,32 @@
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
         <v>24</v>
@@ -835,32 +834,32 @@
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1">
         <v>24</v>
@@ -871,32 +870,32 @@
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1">
         <v>24</v>
@@ -907,32 +906,32 @@
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1">
         <v>24</v>
@@ -943,32 +942,32 @@
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>24</v>
@@ -979,32 +978,32 @@
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1">
         <v>24</v>
@@ -1015,32 +1014,32 @@
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1">
         <v>24</v>
@@ -1051,32 +1050,32 @@
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1">
         <v>24</v>
@@ -1087,32 +1086,32 @@
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1">
         <v>24</v>
@@ -1123,32 +1122,32 @@
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1">
         <v>24</v>
@@ -1159,32 +1158,32 @@
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1">
         <v>24</v>
@@ -1195,32 +1194,32 @@
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1">
         <v>24</v>
@@ -1231,32 +1230,32 @@
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1">
         <v>24</v>
@@ -1267,32 +1266,32 @@
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1">
         <v>24</v>
@@ -1303,32 +1302,32 @@
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>24</v>
@@ -1339,32 +1338,32 @@
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1">
         <v>24</v>
@@ -1375,32 +1374,32 @@
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L22" s="1">
         <v>24</v>
@@ -1411,32 +1410,32 @@
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1">
         <v>24</v>
@@ -1495,13 +1494,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -1515,25 +1513,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1550,32 +1548,32 @@
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
         <v>24</v>
@@ -1586,32 +1584,32 @@
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
         <v>/Sprites/Tower/1011000/</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1">
         <v>24</v>
@@ -1622,32 +1620,32 @@
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1">
         <v>24</v>
@@ -1658,32 +1656,32 @@
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1">
         <v>24</v>
@@ -1694,32 +1692,32 @@
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
         <v>24</v>
@@ -1730,32 +1728,32 @@
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1">
         <v>24</v>
@@ -1766,32 +1764,32 @@
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1">
         <v>24</v>
@@ -1802,32 +1800,32 @@
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1">
         <v>24</v>
@@ -1838,32 +1836,32 @@
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>24</v>
@@ -1874,32 +1872,32 @@
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1">
         <v>24</v>
@@ -1910,32 +1908,32 @@
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1">
         <v>24</v>
@@ -1946,32 +1944,32 @@
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1">
         <v>24</v>
@@ -1982,32 +1980,32 @@
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1">
         <v>24</v>
@@ -2018,32 +2016,32 @@
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1">
         <v>24</v>
@@ -2054,32 +2052,32 @@
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1">
         <v>24</v>
@@ -2090,32 +2088,32 @@
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1">
         <v>24</v>
@@ -2126,32 +2124,32 @@
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1">
         <v>24</v>
@@ -2162,32 +2160,32 @@
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1">
         <v>24</v>
@@ -2198,32 +2196,32 @@
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>24</v>
@@ -2234,32 +2232,32 @@
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1">
         <v>24</v>
@@ -2270,32 +2268,32 @@
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L22" s="1">
         <v>24</v>
@@ -2306,32 +2304,32 @@
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1">
         <v>24</v>
@@ -2388,16 +2386,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2411,25 +2408,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -2446,32 +2443,32 @@
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
         <v>24</v>
@@ -2482,32 +2479,32 @@
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
         <v>/Sprites/Tower/1021000/</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1">
         <v>24</v>
@@ -2518,32 +2515,32 @@
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J25" si="0">CONCATENATE("/Sprites/Tower/",A4,"/")</f>
         <v>/Sprites/Tower/1020001/</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1">
         <v>24</v>
@@ -2554,32 +2551,32 @@
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1">
         <v>24</v>
@@ -2590,32 +2587,32 @@
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
         <v>24</v>
@@ -2626,32 +2623,32 @@
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1">
         <v>24</v>
@@ -2662,32 +2659,32 @@
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1">
         <v>24</v>
@@ -2698,32 +2695,32 @@
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1">
         <v>24</v>
@@ -2734,32 +2731,32 @@
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>24</v>
@@ -2770,32 +2767,32 @@
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1">
         <v>24</v>
@@ -2806,32 +2803,32 @@
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1">
         <v>24</v>
@@ -2842,32 +2839,32 @@
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1">
         <v>24</v>
@@ -2878,32 +2875,32 @@
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1">
         <v>24</v>
@@ -2914,32 +2911,32 @@
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1">
         <v>24</v>
@@ -2950,32 +2947,32 @@
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1">
         <v>24</v>
@@ -2986,32 +2983,32 @@
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1">
         <v>24</v>
@@ -3022,32 +3019,32 @@
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1">
         <v>24</v>
@@ -3058,32 +3055,32 @@
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1">
         <v>24</v>
@@ -3094,32 +3091,32 @@
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>24</v>
@@ -3130,32 +3127,32 @@
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1">
         <v>24</v>
@@ -3166,32 +3163,32 @@
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L22" s="1">
         <v>24</v>
@@ -3202,32 +3199,32 @@
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1">
         <v>24</v>
@@ -3238,32 +3235,32 @@
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L24" s="1">
         <v>24</v>
@@ -3274,32 +3271,32 @@
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25" s="1">
         <v>24</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16686D1F-533C-4B18-9E69-B656DED28AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A76F45F-7A47-477A-AE48-414CB55AD1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="5820" windowWidth="19485" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-24615" yWindow="6975" windowWidth="23850" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -592,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
@@ -696,7 +696,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
@@ -732,7 +732,7 @@
         <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0.1</v>
@@ -771,7 +771,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
@@ -810,7 +810,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0.1</v>
@@ -846,7 +846,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0.1</v>
@@ -882,13 +882,13 @@
         <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H8" s="1">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -918,13 +918,13 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -954,13 +954,13 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H10" s="1">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -990,13 +990,13 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1026,13 +1026,13 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H12" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1062,13 +1062,13 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H13" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1098,13 +1098,13 @@
         <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H14" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1134,13 +1134,13 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H15" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1170,13 +1170,13 @@
         <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H16" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1206,13 +1206,13 @@
         <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H17" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1242,7 +1242,7 @@
         <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>0.1</v>
@@ -1278,7 +1278,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>0.1</v>
@@ -1314,7 +1314,7 @@
         <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>0.1</v>
@@ -1350,13 +1350,13 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G21" s="1">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1386,13 +1386,13 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1422,13 +1422,13 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1560,7 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
@@ -1596,7 +1596,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
@@ -1632,7 +1632,7 @@
         <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0.1</v>
@@ -1668,7 +1668,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
@@ -1704,7 +1704,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0.1</v>
@@ -1740,7 +1740,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0.1</v>
@@ -1776,7 +1776,7 @@
         <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0.1</v>
@@ -1812,7 +1812,7 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0.1</v>
@@ -1848,7 +1848,7 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0.1</v>
@@ -1884,7 +1884,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>0.1</v>
@@ -1920,7 +1920,7 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1956,7 +1956,7 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -1992,7 +1992,7 @@
         <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -2028,7 +2028,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0.1</v>
@@ -2064,7 +2064,7 @@
         <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -2100,7 +2100,7 @@
         <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0.1</v>
@@ -2136,7 +2136,7 @@
         <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>0.1</v>
@@ -2172,7 +2172,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>0.1</v>
@@ -2208,7 +2208,7 @@
         <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>0.1</v>
@@ -2244,7 +2244,7 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0.1</v>
@@ -2280,7 +2280,7 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -2316,7 +2316,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -2386,9 +2386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2455,7 +2455,7 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
@@ -2491,7 +2491,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
@@ -2527,7 +2527,7 @@
         <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0.1</v>
@@ -2563,7 +2563,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
@@ -2599,7 +2599,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0.1</v>
@@ -2635,7 +2635,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0.1</v>
@@ -2671,7 +2671,7 @@
         <v>2.5</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0.1</v>
@@ -2707,7 +2707,7 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>0.1</v>
@@ -2743,7 +2743,7 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0.1</v>
@@ -2779,7 +2779,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>0.1</v>
@@ -2815,7 +2815,7 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -2851,7 +2851,7 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -2887,7 +2887,7 @@
         <v>2.5</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -2923,7 +2923,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0.1</v>
@@ -2959,7 +2959,7 @@
         <v>2.5</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -2995,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0.1</v>
@@ -3031,7 +3031,7 @@
         <v>2.5</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>0.1</v>
@@ -3067,7 +3067,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>0.1</v>
@@ -3103,7 +3103,7 @@
         <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>0.1</v>
@@ -3139,7 +3139,7 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0.1</v>
@@ -3175,7 +3175,7 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -3211,7 +3211,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -3247,7 +3247,7 @@
         <v>2.5</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -3283,7 +3283,7 @@
         <v>2.5</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>0.1</v>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A76F45F-7A47-477A-AE48-414CB55AD1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE575F40-59AE-4CE7-9C83-7E872953FA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24615" yWindow="6975" windowWidth="23850" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>attacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;</t>
+  </si>
+  <si>
+    <t>0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.525;1.125;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,8 +692,8 @@
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -701,8 +728,8 @@
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
@@ -737,8 +764,8 @@
       <c r="G4" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
@@ -776,8 +803,8 @@
       <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>11</v>
@@ -815,8 +842,8 @@
       <c r="G6" s="1">
         <v>0.1</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -851,8 +878,8 @@
       <c r="G7" s="1">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -887,8 +914,8 @@
       <c r="G8" s="1">
         <v>0.08</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.32</v>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -923,8 +950,8 @@
       <c r="G9" s="1">
         <v>0.08</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.32</v>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -959,8 +986,8 @@
       <c r="G10" s="1">
         <v>0.08</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.32</v>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -984,7 +1011,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="1">
         <v>2.5</v>
@@ -995,8 +1022,8 @@
       <c r="G11" s="1">
         <v>0.15</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1020,7 +1047,7 @@
         <v>150</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="1">
         <v>2.5</v>
@@ -1031,8 +1058,8 @@
       <c r="G12" s="1">
         <v>0.15</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1056,7 +1083,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="1">
         <v>2.5</v>
@@ -1067,8 +1094,8 @@
       <c r="G13" s="1">
         <v>0.15</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1103,8 +1130,8 @@
       <c r="G14" s="1">
         <v>0.06</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.48</v>
+      <c r="H14" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1139,8 +1166,8 @@
       <c r="G15" s="1">
         <v>0.06</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.48</v>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1175,8 +1202,8 @@
       <c r="G16" s="1">
         <v>0.06</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.48</v>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1211,8 +1238,8 @@
       <c r="G17" s="1">
         <v>0.06</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.48</v>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1247,8 +1274,8 @@
       <c r="G18" s="1">
         <v>0.1</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.2</v>
+      <c r="H18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1283,8 +1310,8 @@
       <c r="G19" s="1">
         <v>0.1</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.2</v>
+      <c r="H19" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1319,8 +1346,8 @@
       <c r="G20" s="1">
         <v>0.1</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.2</v>
+      <c r="H20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1355,8 +1382,8 @@
       <c r="G21" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.6</v>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1391,8 +1418,8 @@
       <c r="G22" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.6</v>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1427,8 +1454,8 @@
       <c r="G23" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.6</v>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1493,8 +1520,8 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F23"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1565,8 +1592,8 @@
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -1601,8 +1628,8 @@
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
@@ -1637,8 +1664,8 @@
       <c r="G4" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1673,8 +1700,8 @@
       <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1709,8 +1736,8 @@
       <c r="G6" s="1">
         <v>0.1</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1745,8 +1772,8 @@
       <c r="G7" s="1">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1781,8 +1808,8 @@
       <c r="G8" s="1">
         <v>0.1</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.2</v>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1817,8 +1844,8 @@
       <c r="G9" s="1">
         <v>0.1</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.2</v>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1853,8 +1880,8 @@
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.2</v>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1889,8 +1916,8 @@
       <c r="G11" s="1">
         <v>0.1</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.2</v>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1925,8 +1952,8 @@
       <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.2</v>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1961,8 +1988,8 @@
       <c r="G13" s="1">
         <v>0.1</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.2</v>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1997,8 +2024,8 @@
       <c r="G14" s="1">
         <v>0.1</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.2</v>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2033,8 +2060,8 @@
       <c r="G15" s="1">
         <v>0.1</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2069,8 +2096,8 @@
       <c r="G16" s="1">
         <v>0.1</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2105,8 +2132,8 @@
       <c r="G17" s="1">
         <v>0.1</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.2</v>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2141,8 +2168,8 @@
       <c r="G18" s="1">
         <v>0.1</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.2</v>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2177,8 +2204,8 @@
       <c r="G19" s="1">
         <v>0.1</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.2</v>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2213,8 +2240,8 @@
       <c r="G20" s="1">
         <v>0.1</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.2</v>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2249,8 +2276,8 @@
       <c r="G21" s="1">
         <v>0.1</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.2</v>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2285,8 +2312,8 @@
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.2</v>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2321,8 +2348,8 @@
       <c r="G23" s="1">
         <v>0.1</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.2</v>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2388,7 +2415,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F25"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2460,8 +2487,8 @@
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -2496,8 +2523,8 @@
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
@@ -2532,8 +2559,8 @@
       <c r="G4" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J25" si="0">CONCATENATE("/Sprites/Tower/",A4,"/")</f>
@@ -2568,8 +2595,8 @@
       <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2604,8 +2631,8 @@
       <c r="G6" s="1">
         <v>0.1</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2640,8 +2667,8 @@
       <c r="G7" s="1">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2676,8 +2703,8 @@
       <c r="G8" s="1">
         <v>0.1</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.2</v>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2712,8 +2739,8 @@
       <c r="G9" s="1">
         <v>0.1</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.2</v>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2748,8 +2775,8 @@
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.2</v>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2784,8 +2811,8 @@
       <c r="G11" s="1">
         <v>0.1</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.2</v>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2820,8 +2847,8 @@
       <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.2</v>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2856,8 +2883,8 @@
       <c r="G13" s="1">
         <v>0.1</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.2</v>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2892,8 +2919,8 @@
       <c r="G14" s="1">
         <v>0.1</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.2</v>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2928,8 +2955,8 @@
       <c r="G15" s="1">
         <v>0.1</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2964,8 +2991,8 @@
       <c r="G16" s="1">
         <v>0.1</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3000,8 +3027,8 @@
       <c r="G17" s="1">
         <v>0.1</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.2</v>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3036,8 +3063,8 @@
       <c r="G18" s="1">
         <v>0.1</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.2</v>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3072,8 +3099,8 @@
       <c r="G19" s="1">
         <v>0.1</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.2</v>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3108,8 +3135,8 @@
       <c r="G20" s="1">
         <v>0.1</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.2</v>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3144,8 +3171,8 @@
       <c r="G21" s="1">
         <v>0.1</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.2</v>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3180,8 +3207,8 @@
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.2</v>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3216,8 +3243,8 @@
       <c r="G23" s="1">
         <v>0.1</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.2</v>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3252,8 +3279,8 @@
       <c r="G24" s="1">
         <v>0.1</v>
       </c>
-      <c r="H24" s="1">
-        <v>0.2</v>
+      <c r="H24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3288,8 +3315,8 @@
       <c r="G25" s="1">
         <v>0.1</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.2</v>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE575F40-59AE-4CE7-9C83-7E872953FA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F1D0FB-62B3-42BE-882F-8835D6E69BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24615" yWindow="6975" windowWidth="23850" windowHeight="12165" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>0.525;1.125;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projspf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,22 +629,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,19 +670,28 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
@@ -695,18 +716,21 @@
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
@@ -731,18 +755,27 @@
       <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
@@ -767,21 +800,30 @@
       <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
@@ -806,21 +848,24 @@
       <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
@@ -845,18 +890,21 @@
       <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
@@ -881,18 +929,21 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
@@ -917,18 +968,27 @@
       <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
@@ -953,18 +1013,27 @@
       <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
@@ -989,18 +1058,27 @@
       <c r="H10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
@@ -1025,18 +1103,21 @@
       <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
@@ -1061,18 +1142,21 @@
       <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
@@ -1097,18 +1181,21 @@
       <c r="H13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
@@ -1133,18 +1220,27 @@
       <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
@@ -1169,18 +1265,27 @@
       <c r="H15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
@@ -1205,18 +1310,27 @@
       <c r="H16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
@@ -1241,18 +1355,27 @@
       <c r="H17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
@@ -1277,18 +1400,27 @@
       <c r="H18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
@@ -1313,18 +1445,27 @@
       <c r="H19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
@@ -1349,18 +1490,27 @@
       <c r="H20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
@@ -1385,18 +1535,27 @@
       <c r="H21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
@@ -1421,18 +1580,27 @@
       <c r="H22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
@@ -1457,39 +1625,48 @@
       <c r="H23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1517,22 +1694,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,19 +1735,28 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
@@ -1595,18 +1781,21 @@
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
@@ -1631,18 +1820,21 @@
       <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J23" si="0">CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
@@ -1667,18 +1859,21 @@
       <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
@@ -1703,18 +1898,21 @@
       <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
@@ -1739,18 +1937,21 @@
       <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
@@ -1775,18 +1976,21 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
@@ -1811,18 +2015,21 @@
       <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
@@ -1847,18 +2054,21 @@
       <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
@@ -1883,18 +2093,21 @@
       <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
@@ -1919,18 +2132,21 @@
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
@@ -1955,18 +2171,21 @@
       <c r="H12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
@@ -1991,18 +2210,21 @@
       <c r="H13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
@@ -2027,18 +2249,21 @@
       <c r="H14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
@@ -2063,18 +2288,21 @@
       <c r="H15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
@@ -2099,18 +2327,21 @@
       <c r="H16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
@@ -2135,18 +2366,21 @@
       <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
@@ -2171,18 +2405,21 @@
       <c r="H18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
@@ -2207,18 +2444,21 @@
       <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
@@ -2243,18 +2483,21 @@
       <c r="H20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
@@ -2279,18 +2522,21 @@
       <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
@@ -2315,18 +2561,21 @@
       <c r="H22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
@@ -2351,39 +2600,42 @@
       <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -2411,11 +2663,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2423,11 +2675,11 @@
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2453,19 +2705,28 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
@@ -2490,18 +2751,21 @@
       <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
@@ -2526,18 +2790,21 @@
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f>CONCATENATE("/Sprites/Tower/",A3,"/")</f>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
@@ -2562,18 +2829,21 @@
       <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" ref="J4:J25" si="0">CONCATENATE("/Sprites/Tower/",A4,"/")</f>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
@@ -2598,18 +2868,21 @@
       <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
@@ -2634,18 +2907,21 @@
       <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
@@ -2670,18 +2946,21 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
@@ -2706,18 +2985,21 @@
       <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
@@ -2742,18 +3024,21 @@
       <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
@@ -2778,18 +3063,21 @@
       <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
@@ -2814,18 +3102,21 @@
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
@@ -2850,18 +3141,21 @@
       <c r="H12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
@@ -2886,18 +3180,21 @@
       <c r="H13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
@@ -2922,18 +3219,21 @@
       <c r="H14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
@@ -2958,18 +3258,21 @@
       <c r="H15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
@@ -2994,18 +3297,21 @@
       <c r="H16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
@@ -3030,18 +3336,21 @@
       <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
@@ -3066,18 +3375,21 @@
       <c r="H18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
@@ -3102,18 +3414,21 @@
       <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
@@ -3138,18 +3453,21 @@
       <c r="H20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
@@ -3174,18 +3492,21 @@
       <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
@@ -3210,18 +3531,21 @@
       <c r="H22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
@@ -3246,18 +3570,21 @@
       <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
@@ -3282,18 +3609,21 @@
       <c r="H24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
@@ -3318,33 +3648,36 @@
       <c r="H25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="1" t="str">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F1D0FB-62B3-42BE-882F-8835D6E69BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108518-F8BF-49F7-856A-1D3BA93E45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-19650" yWindow="5805" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,37 @@
   </si>
   <si>
     <t>projspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.9;</t>
+  </si>
+  <si>
+    <t>0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;0.8;1.4;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1558,7 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1572,7 +1603,7 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1617,7 +1648,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1696,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1773,13 +1804,13 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -1812,13 +1843,13 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1857,7 +1888,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1896,10 +1927,16 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.3</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1935,10 +1972,16 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.3</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1974,7 +2017,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2013,7 +2056,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2052,7 +2095,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2091,10 +2134,16 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2130,10 +2179,16 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2169,10 +2224,16 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.3</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2208,7 +2269,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2247,7 +2308,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2286,10 +2347,16 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.3</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2325,10 +2392,16 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2364,10 +2437,16 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2403,10 +2482,16 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.45</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2442,10 +2527,16 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.45</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2481,10 +2572,16 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.45</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2520,10 +2617,16 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.45</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2553,16 +2656,22 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.3</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2592,16 +2701,22 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.3</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108518-F8BF-49F7-856A-1D3BA93E45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EA2C5-40E0-47F2-9E67-6A4259D96181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19650" yWindow="5805" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-21645" yWindow="5415" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="69">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.525;1.125;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,25 @@
   </si>
   <si>
     <t>0.2;0.8;1.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3;</t>
+  </si>
+  <si>
+    <t>0.3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,8 +678,8 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,13 +716,13 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1564,7 +1579,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1609,7 +1624,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1654,7 +1669,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1727,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1766,13 +1781,13 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1810,7 +1825,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -1849,7 +1864,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1888,7 +1903,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1927,7 +1942,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1972,7 +1987,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2017,7 +2032,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2056,7 +2071,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2095,7 +2110,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2134,7 +2149,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2179,7 +2194,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2224,7 +2239,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2269,7 +2284,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2308,7 +2323,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2347,7 +2362,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2392,7 +2407,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2437,7 +2452,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2482,7 +2497,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2527,7 +2542,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2572,7 +2587,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2617,7 +2632,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -2662,7 +2677,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2707,7 +2722,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2780,9 +2795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2820,13 +2835,13 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -2864,10 +2879,16 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.3</v>
       </c>
       <c r="M2" s="1" t="str">
         <f t="shared" ref="M2:M25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
@@ -2903,10 +2924,16 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2936,16 +2963,22 @@
         <v>2.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
       </c>
       <c r="M4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2975,16 +3008,22 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.6</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3014,16 +3053,22 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3059,10 +3104,16 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.3</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3098,10 +3149,16 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.3</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3137,10 +3194,16 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.3</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3176,10 +3239,16 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3215,10 +3284,16 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3254,10 +3329,16 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.3</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3410,10 +3491,16 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.3</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3449,10 +3536,16 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3488,10 +3581,16 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.3</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3683,10 +3782,16 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.6</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3722,10 +3827,16 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.6</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3761,10 +3872,16 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.6</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EA2C5-40E0-47F2-9E67-6A4259D96181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE38D5-E505-40DF-9C41-5123469EE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21645" yWindow="5415" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-27240" yWindow="6210" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projspf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +304,21 @@
   </si>
   <si>
     <t>0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projattacktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
+  </si>
+  <si>
+    <t>0.5,0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,10 +698,12 @@
     <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,25 +732,28 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
@@ -765,18 +781,18 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
@@ -810,18 +826,21 @@
       <c r="K3" s="1">
         <v>0.3</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="L3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
@@ -855,21 +874,24 @@
       <c r="K4" s="1">
         <v>0.3</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="N4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
@@ -897,21 +919,21 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="N5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
@@ -939,18 +961,18 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
@@ -978,18 +1000,18 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
@@ -1023,18 +1045,21 @@
       <c r="K8" s="1">
         <v>0.3</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
@@ -1068,18 +1093,21 @@
       <c r="K9" s="1">
         <v>0.3</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
@@ -1113,18 +1141,21 @@
       <c r="K10" s="1">
         <v>0.3</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
@@ -1152,18 +1183,18 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
@@ -1191,18 +1222,18 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
@@ -1230,18 +1261,18 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
@@ -1275,18 +1306,21 @@
       <c r="K14" s="1">
         <v>0.3</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="L14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
@@ -1320,18 +1354,21 @@
       <c r="K15" s="1">
         <v>0.3</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="L15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
@@ -1365,18 +1402,21 @@
       <c r="K16" s="1">
         <v>0.3</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
@@ -1410,18 +1450,21 @@
       <c r="K17" s="1">
         <v>0.3</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
@@ -1455,18 +1498,21 @@
       <c r="K18" s="1">
         <v>0.35</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="L18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
@@ -1498,20 +1544,23 @@
         <v>0.03</v>
       </c>
       <c r="K19" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M19" s="1" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
@@ -1543,20 +1592,23 @@
         <v>0.03</v>
       </c>
       <c r="K20" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M20" s="1" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G21" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1590,18 +1642,21 @@
       <c r="K21" s="1">
         <v>0.3</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="L21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
@@ -1618,7 +1673,7 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G22" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1635,18 +1690,21 @@
       <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="L22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
@@ -1663,7 +1721,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G23" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1680,39 +1738,42 @@
       <c r="K23" s="1">
         <v>0.3</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="L23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1740,11 +1801,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1752,10 +1813,13 @@
     <col min="1" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1784,25 +1848,28 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
@@ -1819,29 +1886,29 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G2" s="1">
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
@@ -1858,29 +1925,29 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G3" s="1">
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="N3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
@@ -1903,23 +1970,23 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="N4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
@@ -1942,7 +2009,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1953,18 +2020,21 @@
       <c r="K5" s="1">
         <v>0.3</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="L5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
@@ -1987,7 +2057,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1998,18 +2068,21 @@
       <c r="K6" s="1">
         <v>0.3</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="L6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
@@ -2032,23 +2105,23 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
@@ -2071,23 +2144,23 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
@@ -2110,23 +2183,23 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
@@ -2149,7 +2222,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2160,18 +2233,21 @@
       <c r="K10" s="1">
         <v>0.3</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
@@ -2194,7 +2270,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2205,18 +2281,21 @@
       <c r="K11" s="1">
         <v>0.3</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="L11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
@@ -2239,7 +2318,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2250,18 +2329,21 @@
       <c r="K12" s="1">
         <v>0.3</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="L12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
@@ -2284,23 +2366,23 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
@@ -2323,23 +2405,23 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
@@ -2362,7 +2444,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2373,18 +2455,21 @@
       <c r="K15" s="1">
         <v>0.3</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="L15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
@@ -2407,7 +2492,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2418,18 +2503,21 @@
       <c r="K16" s="1">
         <v>0.3</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
@@ -2452,7 +2540,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2463,18 +2551,21 @@
       <c r="K17" s="1">
         <v>0.3</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
@@ -2497,7 +2588,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2508,18 +2599,21 @@
       <c r="K18" s="1">
         <v>0.45</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="L18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
@@ -2542,7 +2636,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2553,18 +2647,21 @@
       <c r="K19" s="1">
         <v>0.45</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="L19" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
@@ -2587,7 +2684,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2598,18 +2695,21 @@
       <c r="K20" s="1">
         <v>0.45</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="L20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
@@ -2632,7 +2732,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -2643,18 +2743,21 @@
       <c r="K21" s="1">
         <v>0.45</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="L21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
@@ -2671,13 +2774,13 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2688,18 +2791,21 @@
       <c r="K22" s="1">
         <v>0.3</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="L22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
@@ -2716,13 +2822,13 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2733,39 +2839,42 @@
       <c r="K23" s="1">
         <v>0.3</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="L23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -2793,11 +2902,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2806,10 +2915,12 @@
     <col min="2" max="6" width="9" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2838,25 +2949,28 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
@@ -2879,7 +2993,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -2890,18 +3004,21 @@
       <c r="K2" s="1">
         <v>0.3</v>
       </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="L2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
@@ -2924,7 +3041,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -2935,18 +3052,21 @@
       <c r="K3" s="1">
         <v>0.3</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="L3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
@@ -2980,18 +3100,21 @@
       <c r="K4" s="1">
         <v>0.6</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="L4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
@@ -3025,18 +3148,21 @@
       <c r="K5" s="1">
         <v>0.6</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="L5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
@@ -3070,18 +3196,21 @@
       <c r="K6" s="1">
         <v>0.6</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="L6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
@@ -3104,7 +3233,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3115,18 +3244,21 @@
       <c r="K7" s="1">
         <v>0.3</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="L7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
@@ -3149,7 +3281,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -3160,18 +3292,21 @@
       <c r="K8" s="1">
         <v>0.3</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
@@ -3194,7 +3329,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -3205,18 +3340,21 @@
       <c r="K9" s="1">
         <v>0.3</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
@@ -3239,7 +3377,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3250,18 +3388,21 @@
       <c r="K10" s="1">
         <v>0.3</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="L10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
@@ -3284,7 +3425,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3295,18 +3436,21 @@
       <c r="K11" s="1">
         <v>0.3</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="L11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
@@ -3329,7 +3473,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3340,18 +3484,21 @@
       <c r="K12" s="1">
         <v>0.3</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="L12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
@@ -3379,18 +3526,18 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
@@ -3418,18 +3565,18 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
@@ -3457,18 +3604,18 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
@@ -3491,7 +3638,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3502,18 +3649,21 @@
       <c r="K16" s="1">
         <v>0.3</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="L16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
@@ -3536,7 +3686,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3547,18 +3697,21 @@
       <c r="K17" s="1">
         <v>0.3</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="L17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
@@ -3581,7 +3734,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -3592,18 +3745,21 @@
       <c r="K18" s="1">
         <v>0.3</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="L18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
@@ -3631,18 +3787,18 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="N19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
@@ -3670,18 +3826,18 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="N20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
@@ -3709,18 +3865,18 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="N21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
@@ -3748,18 +3904,18 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="N22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
@@ -3782,7 +3938,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -3793,18 +3949,21 @@
       <c r="K23" s="1">
         <v>0.6</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="L23">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
@@ -3827,7 +3986,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -3838,18 +3997,21 @@
       <c r="K24" s="1">
         <v>0.6</v>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="L24" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
@@ -3872,7 +4034,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -3883,33 +4045,36 @@
       <c r="K25" s="1">
         <v>0.6</v>
       </c>
-      <c r="M25" s="1" t="str">
+      <c r="L25" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE38D5-E505-40DF-9C41-5123469EE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BAE1B-1A26-48D3-B376-295A4CBD2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="6210" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="76">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>0.5,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectspf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,0,0,1)</t>
+  </si>
+  <si>
+    <t>(1,0,0,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,11 +714,13 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,19 +758,25 @@
         <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
@@ -781,18 +804,21 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:N23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
@@ -829,18 +855,18 @@
       <c r="L3" s="1">
         <v>0.3</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
@@ -877,21 +903,24 @@
       <c r="L4" s="1">
         <v>0.3</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
@@ -919,21 +948,24 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
@@ -961,18 +993,18 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
@@ -1000,18 +1032,18 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
@@ -1048,18 +1080,18 @@
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
@@ -1096,18 +1128,18 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
@@ -1144,18 +1176,18 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
@@ -1183,18 +1215,18 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
@@ -1222,18 +1254,18 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
@@ -1261,18 +1293,18 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
@@ -1309,18 +1341,21 @@
       <c r="L14" s="1">
         <v>0.3</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="N14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
@@ -1357,18 +1392,21 @@
       <c r="L15" s="1">
         <v>0.3</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="N15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
@@ -1405,18 +1443,21 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="N16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
@@ -1453,18 +1494,21 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="N17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
@@ -1501,18 +1545,21 @@
       <c r="L18" s="1">
         <v>0.1</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="N18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
@@ -1549,18 +1596,21 @@
       <c r="L19" s="1">
         <v>0.1</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
@@ -1597,18 +1647,21 @@
       <c r="L20" s="1">
         <v>0.1</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
@@ -1645,18 +1698,21 @@
       <c r="L21" s="1">
         <v>0.3</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="N21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
@@ -1693,18 +1749,21 @@
       <c r="L22" s="1">
         <v>0.3</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="N22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
@@ -1741,39 +1800,42 @@
       <c r="L23" s="1">
         <v>0.3</v>
       </c>
-      <c r="N23" s="1" t="str">
+      <c r="N23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1801,11 +1863,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1814,12 +1876,11 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1857,19 +1918,25 @@
         <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
@@ -1897,18 +1964,18 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:N23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
@@ -1936,18 +2003,18 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
@@ -1975,18 +2042,18 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
@@ -2023,18 +2090,18 @@
       <c r="L5" s="1">
         <v>0.3</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
@@ -2071,18 +2138,18 @@
       <c r="L6" s="1">
         <v>0.3</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
@@ -2110,18 +2177,18 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
@@ -2149,18 +2216,18 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
@@ -2188,18 +2255,18 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
@@ -2236,18 +2303,18 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
@@ -2284,18 +2351,18 @@
       <c r="L11" s="1">
         <v>0.3</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
@@ -2332,18 +2399,18 @@
       <c r="L12" s="1">
         <v>0.3</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
@@ -2371,18 +2438,18 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
@@ -2410,18 +2477,18 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
@@ -2458,18 +2525,18 @@
       <c r="L15" s="1">
         <v>0.3</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
@@ -2506,18 +2573,18 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
@@ -2554,18 +2621,18 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
@@ -2602,18 +2669,18 @@
       <c r="L18" s="1">
         <v>0.15</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
@@ -2650,18 +2717,18 @@
       <c r="L19" s="1">
         <v>0.15</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
@@ -2698,18 +2765,18 @@
       <c r="L20" s="1">
         <v>0.15</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
@@ -2746,18 +2813,18 @@
       <c r="L21" s="1">
         <v>0.15</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
@@ -2794,18 +2861,18 @@
       <c r="L22" s="1">
         <v>0.3</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
@@ -2842,39 +2909,39 @@
       <c r="L23" s="1">
         <v>0.3</v>
       </c>
-      <c r="N23" s="1" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -2902,11 +2969,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,11 +2983,13 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2958,19 +3027,25 @@
         <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
@@ -3007,18 +3082,18 @@
       <c r="L2" s="1">
         <v>0.3</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:N25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
@@ -3055,18 +3130,18 @@
       <c r="L3" s="1">
         <v>0.3</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
@@ -3103,18 +3178,18 @@
       <c r="L4" s="1">
         <v>0.1</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
@@ -3151,18 +3226,18 @@
       <c r="L5" s="1">
         <v>0.1</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
@@ -3199,18 +3274,18 @@
       <c r="L6" s="1">
         <v>0.1</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
@@ -3247,18 +3322,18 @@
       <c r="L7" s="1">
         <v>0.3</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
@@ -3295,18 +3370,18 @@
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
@@ -3343,18 +3418,18 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
@@ -3391,18 +3466,18 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
@@ -3439,18 +3514,18 @@
       <c r="L11" s="1">
         <v>0.3</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
@@ -3487,18 +3562,18 @@
       <c r="L12" s="1">
         <v>0.3</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
@@ -3526,18 +3601,18 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
@@ -3565,18 +3640,18 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
@@ -3604,18 +3679,18 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
@@ -3652,18 +3727,18 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
@@ -3700,18 +3775,18 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
@@ -3748,18 +3823,18 @@
       <c r="L18" s="1">
         <v>0.3</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
@@ -3787,18 +3862,18 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
@@ -3826,18 +3901,18 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
@@ -3865,18 +3940,18 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
@@ -3904,18 +3979,18 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
@@ -3952,18 +4027,18 @@
       <c r="L23">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N23" s="1" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
@@ -4000,18 +4075,18 @@
       <c r="L24" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N24" s="1" t="str">
+      <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
@@ -4048,33 +4123,33 @@
       <c r="L25" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N25" s="1" t="str">
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BAE1B-1A26-48D3-B376-295A4CBD2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF94A1B-8F75-489A-A5D2-1AAEF324EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-19755" yWindow="5745" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>(1,0,0,1)</t>
+  </si>
+  <si>
+    <t>(1,0,0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선장,Captain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+  </si>
+  <si>
+    <t>(0.6,0.8,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(1,0,0,1)</t>
@@ -703,9 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1865,9 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2121,7 @@
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -2137,6 +2152,12 @@
       </c>
       <c r="L6" s="1">
         <v>0.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2177,6 +2198,9 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
@@ -2216,6 +2240,9 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
@@ -2255,6 +2282,9 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
@@ -2303,6 +2333,9 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
@@ -2351,6 +2384,9 @@
       <c r="L11" s="1">
         <v>0.3</v>
       </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
@@ -2399,6 +2435,9 @@
       <c r="L12" s="1">
         <v>0.3</v>
       </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
@@ -2438,6 +2477,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
@@ -2477,6 +2519,9 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
@@ -2525,6 +2570,9 @@
       <c r="L15" s="1">
         <v>0.3</v>
       </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
@@ -2573,6 +2621,9 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
@@ -2621,6 +2672,9 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
@@ -2669,6 +2723,9 @@
       <c r="L18" s="1">
         <v>0.15</v>
       </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
@@ -2717,6 +2774,9 @@
       <c r="L19" s="1">
         <v>0.15</v>
       </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
@@ -2765,6 +2825,9 @@
       <c r="L20" s="1">
         <v>0.15</v>
       </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
@@ -2813,6 +2876,9 @@
       <c r="L21" s="1">
         <v>0.15</v>
       </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
@@ -2861,6 +2927,12 @@
       <c r="L22" s="1">
         <v>0.3</v>
       </c>
+      <c r="M22" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
@@ -2908,6 +2980,12 @@
       </c>
       <c r="L23" s="1">
         <v>0.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF94A1B-8F75-489A-A5D2-1AAEF324EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC2AAE-7E35-4FA3-B515-913D8C174DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19755" yWindow="5745" windowWidth="19425" windowHeight="12165" activeTab="1" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-19755" yWindow="5745" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="81">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>(1,0,0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,0,1,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1880,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
@@ -3049,9 +3053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3160,6 +3164,9 @@
       <c r="L2" s="1">
         <v>0.3</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P2" s="1" t="str">
         <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
@@ -3208,6 +3215,9 @@
       <c r="L3" s="1">
         <v>0.3</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
@@ -3544,6 +3554,9 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
@@ -3592,6 +3605,9 @@
       <c r="L11" s="1">
         <v>0.3</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
@@ -3639,6 +3655,9 @@
       </c>
       <c r="L12" s="1">
         <v>0.3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC2AAE-7E35-4FA3-B515-913D8C174DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D82AA0-C3E7-4821-8750-DEC581279F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19755" yWindow="5745" windowWidth="19425" windowHeight="12165" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="91">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,1.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2;6,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5,0.0625</t>
   </si>
   <si>
@@ -353,6 +345,54 @@
   </si>
   <si>
     <t>(1,0,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,11 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,16 +775,16 @@
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -759,48 +799,54 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -818,31 +864,34 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -860,7 +909,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -874,23 +923,26 @@
       <c r="L3" s="1">
         <v>0.3</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="Q3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -908,7 +960,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -923,28 +975,28 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="1" t="str">
+        <v>86</v>
+      </c>
+      <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -962,34 +1014,31 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1007,28 +1056,28 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="R6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001003/</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -1046,28 +1095,28 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="R7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002003/</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -1085,7 +1134,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1099,23 +1148,26 @@
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="O8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -1133,7 +1185,7 @@
         <v>0.08</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1147,23 +1199,23 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001004/</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -1181,7 +1233,7 @@
         <v>0.08</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1195,23 +1247,23 @@
       <c r="L10" s="1">
         <v>0.3</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002004/</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -1229,28 +1281,28 @@
         <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000005/</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -1268,28 +1320,28 @@
         <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001005/</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1307,28 +1359,28 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002005/</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1346,7 +1398,7 @@
         <v>0.06</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1361,25 +1413,25 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -1397,7 +1449,7 @@
         <v>0.06</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1412,25 +1464,25 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -1448,7 +1500,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1463,25 +1515,25 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -1499,7 +1551,7 @@
         <v>0.06</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1514,25 +1566,25 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -1550,7 +1602,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1565,25 +1617,25 @@
         <v>0.1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -1601,7 +1653,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1616,25 +1668,25 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -1652,7 +1704,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -1667,25 +1719,25 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -1703,7 +1755,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1718,25 +1770,25 @@
         <v>0.3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -1754,7 +1806,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1769,25 +1821,25 @@
         <v>0.3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -1805,7 +1857,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1820,41 +1872,41 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1882,11 +1934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,11 +1947,11 @@
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="16" max="16" width="25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1919,48 +1971,54 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -1978,28 +2036,28 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1010000/</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -2017,28 +2075,28 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011000/</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -2056,28 +2114,28 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010001/</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -2095,7 +2153,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -2109,23 +2167,23 @@
       <c r="L5" s="1">
         <v>0.3</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011001/</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -2143,7 +2201,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2161,25 +2219,25 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="R6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -2197,31 +2255,31 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -2239,31 +2297,31 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -2281,31 +2339,31 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -2323,7 +2381,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2338,25 +2396,25 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -2374,7 +2432,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2389,25 +2447,25 @@
         <v>0.3</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -2425,7 +2483,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2440,25 +2498,25 @@
         <v>0.3</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -2476,31 +2534,31 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -2518,31 +2576,31 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -2560,7 +2618,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2575,25 +2633,25 @@
         <v>0.3</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -2611,7 +2669,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2626,25 +2684,25 @@
         <v>0.3</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -2662,7 +2720,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2677,25 +2735,25 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -2713,7 +2771,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2728,25 +2786,25 @@
         <v>0.15</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -2764,7 +2822,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2779,25 +2837,25 @@
         <v>0.15</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -2815,7 +2873,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2830,25 +2888,25 @@
         <v>0.15</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2866,7 +2924,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -2881,25 +2939,25 @@
         <v>0.15</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -2917,7 +2975,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2935,25 +2993,25 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -2971,7 +3029,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -2989,41 +3047,41 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -3051,11 +3109,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3067,11 +3125,11 @@
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3091,48 +3149,54 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -3150,7 +3214,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -3165,25 +3229,28 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3201,7 +3268,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3216,25 +3283,25 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3252,7 +3319,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -3266,23 +3333,26 @@
       <c r="L4" s="1">
         <v>0.1</v>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -3300,7 +3370,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -3314,23 +3384,23 @@
       <c r="L5" s="1">
         <v>0.1</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021001/</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -3348,7 +3418,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -3362,23 +3432,23 @@
       <c r="L6" s="1">
         <v>0.1</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="R6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022001/</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -3396,7 +3466,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3410,23 +3480,23 @@
       <c r="L7" s="1">
         <v>0.3</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="R7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020002/</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -3444,7 +3514,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -3458,23 +3528,23 @@
       <c r="L8" s="1">
         <v>0.3</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021002/</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -3492,7 +3562,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -3506,23 +3576,23 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022002/</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -3540,7 +3610,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3555,25 +3625,25 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -3591,7 +3661,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3606,25 +3676,25 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -3642,7 +3712,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3657,25 +3727,25 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -3693,28 +3763,28 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="str">
+      <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020004/</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -3732,28 +3802,28 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021004/</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -3771,28 +3841,28 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022004/</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -3810,7 +3880,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3824,23 +3894,23 @@
       <c r="L16" s="1">
         <v>0.3</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020005/</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -3858,7 +3928,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3872,23 +3942,23 @@
       <c r="L17" s="1">
         <v>0.3</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021005/</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -3906,7 +3976,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -3920,23 +3990,23 @@
       <c r="L18" s="1">
         <v>0.3</v>
       </c>
-      <c r="P18" s="1" t="str">
+      <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022005/</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -3954,28 +4024,31 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="str">
+      <c r="P19" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -3993,28 +4066,31 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="str">
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -4032,28 +4108,31 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="str">
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -4071,28 +4150,31 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="str">
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -4110,7 +4192,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -4124,23 +4206,26 @@
       <c r="L23">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P23" s="1" t="str">
+      <c r="Q23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>150</v>
@@ -4158,7 +4243,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -4172,23 +4257,23 @@
       <c r="L24" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P24" s="1" t="str">
+      <c r="R24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021008/</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>150</v>
@@ -4206,7 +4291,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -4220,33 +4305,33 @@
       <c r="L25" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P25" s="1" t="str">
+      <c r="R25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022008/</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
+++ b/Utils/Excel To Json/bin/netcoreapp3.1/Tower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\TETD\Utils\Excel To Json\bin\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D82AA0-C3E7-4821-8750-DEC581279F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF58A45-D5C9-4D3A-8534-29D71EEE898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
+    <workbookView xWindow="-28920" yWindow="4575" windowWidth="29040" windowHeight="15840" xr2:uid="{F7863118-105F-453F-BD22-09F23552EC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>pivot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pixelperunit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -760,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B544D-229D-4A5B-BFF8-79DA3F65400C}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,12 +775,12 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -796,40 +792,40 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -837,16 +833,13 @@
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000000</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -864,34 +857,31 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" ref="R2:R23" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1000000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000001</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -909,7 +899,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -924,25 +914,22 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000001/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000002</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -960,7 +947,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -975,28 +962,25 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000002/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000003</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -1014,31 +998,28 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000003/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1001003</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -1056,7 +1037,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1066,18 +1047,15 @@
         <v>/Sprites/Tower/1001003/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002003</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -1095,7 +1073,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1105,18 +1083,15 @@
         <v>/Sprites/Tower/1002003/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000004</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -1134,7 +1109,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1149,25 +1124,22 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000004/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1001004</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -1185,7 +1157,7 @@
         <v>0.08</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1204,18 +1176,15 @@
         <v>/Sprites/Tower/1001004/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1002004</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -1233,7 +1202,7 @@
         <v>0.08</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1252,18 +1221,15 @@
         <v>/Sprites/Tower/1002004/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1000005</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -1281,7 +1247,7 @@
         <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1291,18 +1257,15 @@
         <v>/Sprites/Tower/1000005/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1001005</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -1320,7 +1283,7 @@
         <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1330,18 +1293,15 @@
         <v>/Sprites/Tower/1001005/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1002005</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -1359,7 +1319,7 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1369,18 +1329,15 @@
         <v>/Sprites/Tower/1002005/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1000006</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1398,7 +1355,7 @@
         <v>0.06</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1413,25 +1370,22 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000006/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1001006</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -1449,7 +1403,7 @@
         <v>0.06</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1464,25 +1418,22 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001006/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1002006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -1500,7 +1451,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1515,25 +1466,22 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002006/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1003006</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -1551,7 +1499,7 @@
         <v>0.06</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1566,25 +1514,22 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003006/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000007</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -1602,7 +1547,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1617,25 +1562,22 @@
         <v>0.1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1000007/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1001007</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -1653,7 +1595,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1668,25 +1610,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001007/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1002007</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -1704,7 +1643,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -1719,25 +1658,22 @@
         <v>0.1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002007/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1001008</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -1755,7 +1691,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1770,25 +1706,22 @@
         <v>0.3</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1001008/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1002008</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -1806,7 +1739,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1821,25 +1754,22 @@
         <v>0.3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1002008/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1003008</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -1857,7 +1787,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1872,41 +1802,38 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1003008/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1934,11 +1861,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2B3F2-784A-4749-859E-0B1CD32F0B4D}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T23" sqref="T1:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1951,7 +1878,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1968,40 +1895,40 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -2009,16 +1936,13 @@
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1010000</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -2036,7 +1960,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -2046,18 +1970,15 @@
         <v>/Sprites/Tower/1010000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1011000</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -2075,7 +1996,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -2085,18 +2006,15 @@
         <v>/Sprites/Tower/1011000/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010001</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -2114,7 +2032,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -2124,18 +2042,15 @@
         <v>/Sprites/Tower/1010001/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011001</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -2153,7 +2068,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -2172,18 +2087,15 @@
         <v>/Sprites/Tower/1011001/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012001</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -2201,7 +2113,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2219,25 +2131,22 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012001/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1010002</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -2255,31 +2164,28 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010002/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1011002</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -2297,31 +2203,28 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011002/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1012002</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -2339,31 +2242,28 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012002/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1010003</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -2381,7 +2281,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2396,25 +2296,22 @@
         <v>0.3</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010003/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1011003</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -2432,7 +2329,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2447,25 +2344,22 @@
         <v>0.3</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011003/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1012003</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -2483,7 +2377,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2498,25 +2392,22 @@
         <v>0.3</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012003/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011004</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -2534,31 +2425,28 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011004/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012004</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -2576,31 +2464,28 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012004/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1010005</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -2618,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2633,25 +2518,22 @@
         <v>0.3</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010005/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1011005</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -2669,7 +2551,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2684,25 +2566,22 @@
         <v>0.3</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011005/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1012005</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -2720,7 +2599,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -2735,25 +2614,22 @@
         <v>0.3</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012005/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1010006</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -2771,7 +2647,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -2786,25 +2662,22 @@
         <v>0.15</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1010006/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1011006</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -2822,7 +2695,7 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -2837,25 +2710,22 @@
         <v>0.15</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1011006/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1012006</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -2873,7 +2743,7 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -2888,25 +2758,22 @@
         <v>0.15</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012006/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1013006</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -2924,7 +2791,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -2939,25 +2806,22 @@
         <v>0.15</v>
       </c>
       <c r="N21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013006/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1012007</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -2975,7 +2839,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2993,25 +2857,22 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1012007/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1013007</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -3029,7 +2890,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3047,41 +2908,38 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1013007/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -3109,11 +2967,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F923A3F-B1CE-4620-BAAF-3B4B2F6906AC}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3129,7 +2987,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3146,40 +3004,40 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -3187,16 +3045,13 @@
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1020000</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>150</v>
@@ -3214,7 +3069,7 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -3229,28 +3084,25 @@
         <v>0.3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" ref="R2:R25" si="0">CONCATENATE("/Sprites/Tower/",A2,"/")</f>
         <v>/Sprites/Tower/1020000/</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1021000</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>150</v>
@@ -3268,7 +3120,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3283,25 +3135,22 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021000/</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1020001</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -3319,7 +3168,7 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -3334,25 +3183,22 @@
         <v>0.1</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020001/</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1021001</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>150</v>
@@ -3370,7 +3216,7 @@
         <v>0.05</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -3389,18 +3235,15 @@
         <v>/Sprites/Tower/1021001/</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1022001</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>150</v>
@@ -3418,7 +3261,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -3437,18 +3280,15 @@
         <v>/Sprites/Tower/1022001/</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1020002</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>150</v>
@@ -3466,7 +3306,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3485,18 +3325,15 @@
         <v>/Sprites/Tower/1020002/</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1021002</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>150</v>
@@ -3514,7 +3351,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -3533,18 +3370,15 @@
         <v>/Sprites/Tower/1021002/</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1022002</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>150</v>
@@ -3562,7 +3396,7 @@
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -3581,18 +3415,15 @@
         <v>/Sprites/Tower/1022002/</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1020003</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
@@ -3610,7 +3441,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3625,25 +3456,22 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020003/</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1021003</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>150</v>
@@ -3661,7 +3489,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3676,25 +3504,22 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021003/</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1022003</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>150</v>
@@ -3712,7 +3537,7 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3727,25 +3552,22 @@
         <v>0.3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022003/</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1020004</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>150</v>
@@ -3763,7 +3585,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -3773,18 +3595,15 @@
         <v>/Sprites/Tower/1020004/</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1021004</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -3802,7 +3621,7 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -3812,18 +3631,15 @@
         <v>/Sprites/Tower/1021004/</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1022004</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>150</v>
@@ -3841,7 +3657,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -3851,18 +3667,15 @@
         <v>/Sprites/Tower/1022004/</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1020005</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>150</v>
@@ -3880,7 +3693,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3899,18 +3712,15 @@
         <v>/Sprites/Tower/1020005/</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1021005</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>150</v>
@@ -3928,7 +3738,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -3947,18 +3757,15 @@
         <v>/Sprites/Tower/1021005/</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1022005</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>150</v>
@@ -3976,7 +3783,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -3995,18 +3802,15 @@
         <v>/Sprites/Tower/1022005/</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1020006</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
@@ -4024,31 +3828,28 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020006/</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1021006</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>150</v>
@@ -4066,31 +3867,28 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1021006/</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1020007</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
@@ -4108,31 +3906,28 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020007/</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1022007</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>150</v>
@@ -4150,31 +3945,28 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1022007/</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1020008</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>150</v>
@@ -4192,7 +3984,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -4207,25 +3999,22 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/Sprites/Tower/1020008/</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1021008</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>150</v>
@@ -4243,7 +4032,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -4262,18 +4051,15 @@
         <v>/Sprites/Tower/1021008/</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1022008</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>150</v>
@@ -4291,7 +4077,7 @@
         <v>0.1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -4310,28 +4096,25 @@
         <v>/Sprites/Tower/1022008/</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
